--- a/2023-11-28 topic areas.xlsx
+++ b/2023-11-28 topic areas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbf59a57c1f0af35/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mszap3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{6D0D2B94-E1E6-457C-9EF3-E051D5786454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5428E2-90F9-42CE-9FC6-25D2C62A8721}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="18800" windowHeight="19370" xr2:uid="{A320C514-E73A-46B8-A715-5064BF4BC332}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">2.  Routes of transmission.  This section includes contact transmission, respiratory pathways (including droplet and ariborne transmission) and has transmission about the challenges in the current evdidence. </t>
-  </si>
-  <si>
     <t>3. Potential sources of CF pathogens. This section covers cross-infection among people with CF, acquisition from individuals without CF, acquisition from the inanimate environment, and non-healthcare sources, such as soil, organic matter, and water. It delineates healthcare sources like water, surfaces, equipment, and air, with a focused examination of construction and renovation, emphasizing filamentous fungi. It explores risk factors for acquisition, including transmissibility markers, healthcare-related careers, social contact, and acquisition from animals.</t>
   </si>
   <si>
@@ -60,12 +56,15 @@
   </si>
   <si>
     <t xml:space="preserve">10.  Challenges to implementation.  This includes a discussion of the challenges to implementing infection prevention and control policies, and also discusses psychosocial impact of infection prevention and control and other undesired impacts of IPC. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.  Routes of transmission.  This section includes contact transmission, respiratory pathways (including droplet and airborne transmission) and includes challenges regarding the current evidence of the literature. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,53 +409,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676D7D25-0F90-4452-A7D3-3A5E4601F17B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
